--- a/安邦/Android端开发计划.xlsx
+++ b/安邦/Android端开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="19290" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>安邦App开发计划（android）</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>耿玉裴</t>
   </si>
 </sst>
 </file>
@@ -168,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,14 +230,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +343,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -257,121 +360,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,12 +418,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,169 +556,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,36 +819,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,6 +834,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -883,26 +897,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,15 +920,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -932,152 +928,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1487,10 +1483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1549,7 +1545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1731,6 +1727,11 @@
     <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
